--- a/Datasets/Interesting Data.xlsx
+++ b/Datasets/Interesting Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Russia</t>
   </si>
@@ -153,6 +153,33 @@
   </si>
   <si>
     <t>4.48 tCO2e</t>
+  </si>
+  <si>
+    <t>Mark Zukerberg's Flight in 2 months</t>
+  </si>
+  <si>
+    <t>278.9 tCo2e</t>
+  </si>
+  <si>
+    <t>10 NBA gmaes</t>
+  </si>
+  <si>
+    <t>5000 tCO2e</t>
+  </si>
+  <si>
+    <t>Players air traverl for NBA + NHL + MLB + NFL</t>
+  </si>
+  <si>
+    <t>122000 tCO2e</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Tier 3 football games</t>
+  </si>
+  <si>
+    <t>56237 tCO2e</t>
   </si>
 </sst>
 </file>
@@ -202,13 +229,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,17 +519,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -512,7 +542,7 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -526,7 +556,7 @@
       <c r="C2" s="2">
         <v>2018</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -540,7 +570,7 @@
       <c r="C3" s="2">
         <v>2014</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -554,7 +584,7 @@
       <c r="C4" s="2">
         <v>2010</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -568,7 +598,7 @@
       <c r="C5" s="2">
         <v>2014</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -582,7 +612,7 @@
       <c r="C6" s="2">
         <v>2018</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -596,7 +626,7 @@
       <c r="C7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -610,7 +640,7 @@
       <c r="C8" s="2">
         <v>2019</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -624,7 +654,7 @@
       <c r="C9" s="2">
         <v>2019</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -638,7 +668,7 @@
       <c r="C10" s="2">
         <v>2010</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -652,7 +682,7 @@
       <c r="C11" s="2">
         <v>2016</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -666,7 +696,7 @@
       <c r="C12" s="2">
         <v>2020</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -680,7 +710,7 @@
       <c r="C13" s="2">
         <v>2018</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -694,7 +724,7 @@
       <c r="C14" s="2">
         <v>2021</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -708,7 +738,7 @@
       <c r="C15" s="2">
         <v>2021</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -722,7 +752,7 @@
       <c r="C16" s="2">
         <v>2021</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -736,7 +766,7 @@
       <c r="C17" s="2">
         <v>2021</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -750,7 +780,7 @@
       <c r="C18" s="2">
         <v>2021</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -764,8 +794,64 @@
       <c r="C19" s="2">
         <v>2021</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
